--- a/public/ecr-summary.xlsx
+++ b/public/ecr-summary.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$50</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -130,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1511,9 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2149,151 +2150,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>210608</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14627860" y="795655"/>
-          <a:ext cx="1238885" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>210608</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14627860" y="795655"/>
-          <a:ext cx="1238885" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>119380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>210185</xdr:colOff>
+      <xdr:colOff>153035</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2317,7 +2182,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14762480" y="605155"/>
+          <a:off x="14705330" y="443230"/>
           <a:ext cx="1104265" cy="658495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2353,15 +2218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>684530</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>732155</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>144145</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163195</xdr:rowOff>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>287020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2385,7 +2250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1284605" y="701675"/>
+          <a:off x="1332230" y="511175"/>
           <a:ext cx="911225" cy="861695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2686,11 +2551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:N17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5538,7 +5405,7 @@
       <c r="AM50" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
+  <mergeCells count="227">
     <mergeCell ref="A7:AJ7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:K8"/>
@@ -5761,7 +5628,6 @@
     <mergeCell ref="AF49:AJ49"/>
     <mergeCell ref="AS49:AW49"/>
     <mergeCell ref="AX49:BB49"/>
-    <mergeCell ref="A1:XFD4"/>
     <mergeCell ref="A5:AJ6"/>
     <mergeCell ref="W15:Z16"/>
     <mergeCell ref="AA15:AD16"/>
@@ -5820,7 +5686,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Name of Your School Administrator Here!" sqref="AF48"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Grading period and the School Year Here!" sqref="A12:A13 E12:E13 Q12:Q13 Z12:Z13 AC12:AC13 L12:M13"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="5" scale="66" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
